--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1832637.664907348</v>
+        <v>-1835471.779422392</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10805082.65858802</v>
+        <v>10805082.65858804</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>291.2713534377467</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.634308924766856</v>
       </c>
       <c r="G2" t="n">
         <v>413.1477086803799</v>
       </c>
       <c r="H2" t="n">
-        <v>317.404613061831</v>
+        <v>317.4046130618308</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.6622108399907</v>
+        <v>213.6622108399906</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1732506010561</v>
       </c>
       <c r="V2" t="n">
-        <v>104.5315935973165</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.1904750843131</v>
       </c>
       <c r="H3" t="n">
-        <v>101.0994852113545</v>
+        <v>101.0994852113544</v>
       </c>
       <c r="I3" t="n">
-        <v>49.69759636305702</v>
+        <v>49.69759636305677</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.56808121898749</v>
+        <v>28.56808121898705</v>
       </c>
       <c r="S3" t="n">
-        <v>150.2659202085262</v>
+        <v>150.2659202085261</v>
       </c>
       <c r="T3" t="n">
-        <v>195.5171599645285</v>
+        <v>195.5171599645284</v>
       </c>
       <c r="U3" t="n">
         <v>225.8655240494684</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>126.4574434908799</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.1701458859702</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>153.7956091949178</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>139.3957989170294</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.1477086803799</v>
+        <v>13.14770868037989</v>
       </c>
       <c r="H5" t="n">
-        <v>317.404613061831</v>
+        <v>317.4046130618308</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>127.3941404185073</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14.49828789996127</v>
+        <v>14.49828789996042</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>159.912350014262</v>
       </c>
       <c r="T5" t="n">
-        <v>48.8233773877635</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1732506010561</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.1904750843131</v>
       </c>
       <c r="H6" t="n">
-        <v>101.0994852113545</v>
+        <v>101.0994852113544</v>
       </c>
       <c r="I6" t="n">
-        <v>49.69759636305702</v>
+        <v>49.69759636305677</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>28.56808121898749</v>
+        <v>28.56808121898705</v>
       </c>
       <c r="S6" t="n">
-        <v>150.2659202085262</v>
+        <v>150.2659202085261</v>
       </c>
       <c r="T6" t="n">
-        <v>195.5171599645285</v>
+        <v>195.5171599645284</v>
       </c>
       <c r="U6" t="n">
         <v>225.8655240494684</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.216466432247387</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.8283145180896</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>128.9809462500251</v>
+        <v>131.0672752478849</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>203.9646195723571</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>117.8077895557823</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>116.0172377816231</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>24.60030709110375</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763399</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1686991936179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.40545032729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>43.98166197004305</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6356839950556</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>2.268486125805158</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>112.668313093795</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>105.9893107373038</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.41584059195273</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>38.2187527515831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2998,7 +2998,7 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.010065354185</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652579</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128534</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898981</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065886</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261731</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002296</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652598</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096052</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.120802835249</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972049</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317888</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445517</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969979</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600556</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1956.699780900337</v>
+        <v>1460.840433979671</v>
       </c>
       <c r="C2" t="n">
-        <v>1587.737263959926</v>
+        <v>1091.877917039259</v>
       </c>
       <c r="D2" t="n">
-        <v>1587.737263959926</v>
+        <v>1091.877917039259</v>
       </c>
       <c r="E2" t="n">
-        <v>1201.949011361681</v>
+        <v>797.6644287183028</v>
       </c>
       <c r="F2" t="n">
-        <v>790.9631065720739</v>
+        <v>790.9631065720737</v>
       </c>
       <c r="G2" t="n">
-        <v>373.6421887131042</v>
+        <v>373.642188713104</v>
       </c>
       <c r="H2" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="I2" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="J2" t="n">
-        <v>54.87234774537131</v>
+        <v>222.2779967657254</v>
       </c>
       <c r="K2" t="n">
-        <v>429.2738253038896</v>
+        <v>596.6794743242453</v>
       </c>
       <c r="L2" t="n">
-        <v>946.0285926007659</v>
+        <v>792.8396857271025</v>
       </c>
       <c r="M2" t="n">
-        <v>1526.601099847431</v>
+        <v>939.4170796439986</v>
       </c>
       <c r="N2" t="n">
-        <v>2113.137532786544</v>
+        <v>1525.953512583115</v>
       </c>
       <c r="O2" t="n">
-        <v>2244.807436915109</v>
+        <v>2034.615596161799</v>
       </c>
       <c r="P2" t="n">
-        <v>2641.264374028756</v>
+        <v>2431.072533275448</v>
       </c>
       <c r="Q2" t="n">
-        <v>2651.573422431425</v>
+        <v>2651.573422431424</v>
       </c>
       <c r="R2" t="n">
-        <v>2651.573422431425</v>
+        <v>2651.573422431424</v>
       </c>
       <c r="S2" t="n">
-        <v>2651.573422431425</v>
+        <v>2651.573422431424</v>
       </c>
       <c r="T2" t="n">
-        <v>2435.753007441535</v>
+        <v>2435.753007441534</v>
       </c>
       <c r="U2" t="n">
-        <v>2435.753007441535</v>
+        <v>2182.042653299053</v>
       </c>
       <c r="V2" t="n">
-        <v>2330.165539161417</v>
+        <v>1850.979765955482</v>
       </c>
       <c r="W2" t="n">
-        <v>2330.165539161417</v>
+        <v>1850.979765955482</v>
       </c>
       <c r="X2" t="n">
-        <v>1956.699780900337</v>
+        <v>1850.979765955482</v>
       </c>
       <c r="Y2" t="n">
-        <v>1956.699780900337</v>
+        <v>1460.840433979671</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>972.0773412369758</v>
+        <v>972.0773412369749</v>
       </c>
       <c r="C3" t="n">
-        <v>797.6243119558488</v>
+        <v>797.6243119558479</v>
       </c>
       <c r="D3" t="n">
-        <v>648.6899022945977</v>
+        <v>648.6899022945968</v>
       </c>
       <c r="E3" t="n">
-        <v>489.4524472891421</v>
+        <v>489.4524472891412</v>
       </c>
       <c r="F3" t="n">
-        <v>342.9178893160272</v>
+        <v>342.9178893160263</v>
       </c>
       <c r="G3" t="n">
-        <v>205.3517528672264</v>
+        <v>205.3517528672256</v>
       </c>
       <c r="H3" t="n">
-        <v>103.2310607345448</v>
+        <v>103.2310607345444</v>
       </c>
       <c r="I3" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1401615764948</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="K3" t="n">
-        <v>469.8268212684672</v>
+        <v>100.8975434981492</v>
       </c>
       <c r="L3" t="n">
-        <v>947.6431492186766</v>
+        <v>578.7138714483602</v>
       </c>
       <c r="M3" t="n">
-        <v>1557.211488436674</v>
+        <v>1188.282210666359</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.071350553908</v>
+        <v>1829.691023383713</v>
       </c>
       <c r="O3" t="n">
-        <v>2244.419426556357</v>
+        <v>2350.039099386164</v>
       </c>
       <c r="P3" t="n">
-        <v>2436.465902086554</v>
+        <v>2644.442416945043</v>
       </c>
       <c r="Q3" t="n">
-        <v>2651.573422431425</v>
+        <v>2651.573422431424</v>
       </c>
       <c r="R3" t="n">
-        <v>2622.716774735478</v>
+        <v>2622.716774735477</v>
       </c>
       <c r="S3" t="n">
-        <v>2470.933016949088</v>
+        <v>2470.933016949087</v>
       </c>
       <c r="T3" t="n">
-        <v>2273.440936176837</v>
+        <v>2273.440936176836</v>
       </c>
       <c r="U3" t="n">
-        <v>2045.293942187475</v>
+        <v>2045.293942187474</v>
       </c>
       <c r="V3" t="n">
-        <v>1810.141833955732</v>
+        <v>1810.141833955731</v>
       </c>
       <c r="W3" t="n">
-        <v>1555.904477227531</v>
+        <v>1555.90447722753</v>
       </c>
       <c r="X3" t="n">
-        <v>1348.052977021998</v>
+        <v>1348.052977021997</v>
       </c>
       <c r="Y3" t="n">
-        <v>1140.292678257044</v>
+        <v>1140.292678257043</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.8190821938003</v>
+        <v>372.0842907888712</v>
       </c>
       <c r="C4" t="n">
-        <v>330.8828992658935</v>
+        <v>203.1481078609642</v>
       </c>
       <c r="D4" t="n">
-        <v>180.7662598535577</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="E4" t="n">
-        <v>180.7662598535577</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="F4" t="n">
-        <v>180.7662598535577</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="G4" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="H4" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="I4" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="J4" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="K4" t="n">
-        <v>142.171255737618</v>
+        <v>142.1712557376187</v>
       </c>
       <c r="L4" t="n">
-        <v>311.7659283158645</v>
+        <v>311.765928315866</v>
       </c>
       <c r="M4" t="n">
-        <v>500.9688547163971</v>
+        <v>500.9688547163995</v>
       </c>
       <c r="N4" t="n">
-        <v>691.107574838312</v>
+        <v>691.1075748383154</v>
       </c>
       <c r="O4" t="n">
-        <v>850.7151622000459</v>
+        <v>850.7151622000503</v>
       </c>
       <c r="P4" t="n">
-        <v>963.7663440218794</v>
+        <v>963.7663440218844</v>
       </c>
       <c r="Q4" t="n">
-        <v>963.7663440218794</v>
+        <v>963.7663440218844</v>
       </c>
       <c r="R4" t="n">
-        <v>963.7663440218794</v>
+        <v>963.7663440218844</v>
       </c>
       <c r="S4" t="n">
-        <v>754.5035703996872</v>
+        <v>963.7663440218844</v>
       </c>
       <c r="T4" t="n">
-        <v>754.5035703996872</v>
+        <v>963.7663440218844</v>
       </c>
       <c r="U4" t="n">
-        <v>754.5035703996872</v>
+        <v>963.7663440218844</v>
       </c>
       <c r="V4" t="n">
-        <v>499.8190821938003</v>
+        <v>709.0818558159975</v>
       </c>
       <c r="W4" t="n">
-        <v>499.8190821938003</v>
+        <v>553.7327556191109</v>
       </c>
       <c r="X4" t="n">
-        <v>499.8190821938003</v>
+        <v>553.7327556191109</v>
       </c>
       <c r="Y4" t="n">
-        <v>499.8190821938003</v>
+        <v>553.7327556191109</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1183.696859919522</v>
+        <v>1418.103760027142</v>
       </c>
       <c r="C5" t="n">
-        <v>1183.696859919522</v>
+        <v>1049.14124308673</v>
       </c>
       <c r="D5" t="n">
-        <v>1183.696859919522</v>
+        <v>908.3374057968015</v>
       </c>
       <c r="E5" t="n">
-        <v>797.9086073212774</v>
+        <v>522.5491531985572</v>
       </c>
       <c r="F5" t="n">
-        <v>386.9227025316698</v>
+        <v>515.6036524493537</v>
       </c>
       <c r="G5" t="n">
-        <v>373.6421887131042</v>
+        <v>502.3231386307882</v>
       </c>
       <c r="H5" t="n">
-        <v>53.03146844862849</v>
+        <v>181.7124183663126</v>
       </c>
       <c r="I5" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="J5" t="n">
-        <v>222.2779967657243</v>
+        <v>222.2779967657254</v>
       </c>
       <c r="K5" t="n">
-        <v>596.6794743242426</v>
+        <v>596.6794743242453</v>
       </c>
       <c r="L5" t="n">
-        <v>1113.434241621119</v>
+        <v>792.8396857271025</v>
       </c>
       <c r="M5" t="n">
-        <v>1316.409259094125</v>
+        <v>939.4170796439986</v>
       </c>
       <c r="N5" t="n">
-        <v>1902.945692033239</v>
+        <v>1525.953512583115</v>
       </c>
       <c r="O5" t="n">
-        <v>2034.615596161803</v>
+        <v>2034.615596161799</v>
       </c>
       <c r="P5" t="n">
-        <v>2431.07253327545</v>
+        <v>2431.072533275448</v>
       </c>
       <c r="Q5" t="n">
-        <v>2651.573422431425</v>
+        <v>2651.573422431424</v>
       </c>
       <c r="R5" t="n">
         <v>2636.928687178939</v>
       </c>
       <c r="S5" t="n">
-        <v>2636.928687178939</v>
+        <v>2475.401060901906</v>
       </c>
       <c r="T5" t="n">
-        <v>2587.612144363016</v>
+        <v>2475.401060901906</v>
       </c>
       <c r="U5" t="n">
-        <v>2333.901790220535</v>
+        <v>2475.401060901906</v>
       </c>
       <c r="V5" t="n">
-        <v>2333.901790220535</v>
+        <v>2144.338173558336</v>
       </c>
       <c r="W5" t="n">
-        <v>2333.901790220535</v>
+        <v>1791.569518288222</v>
       </c>
       <c r="X5" t="n">
-        <v>1960.436031959455</v>
+        <v>1418.103760027142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1570.296699983643</v>
+        <v>1418.103760027142</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>972.0773412369759</v>
+        <v>972.0773412369755</v>
       </c>
       <c r="C6" t="n">
-        <v>797.624311955849</v>
+        <v>797.6243119558485</v>
       </c>
       <c r="D6" t="n">
-        <v>648.6899022945977</v>
+        <v>648.6899022945972</v>
       </c>
       <c r="E6" t="n">
-        <v>489.4524472891421</v>
+        <v>489.4524472891418</v>
       </c>
       <c r="F6" t="n">
-        <v>342.9178893160271</v>
+        <v>342.9178893160268</v>
       </c>
       <c r="G6" t="n">
-        <v>205.351752867226</v>
+        <v>205.3517528672257</v>
       </c>
       <c r="H6" t="n">
-        <v>103.2310607345447</v>
+        <v>103.2310607345444</v>
       </c>
       <c r="I6" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1401615764948</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="K6" t="n">
-        <v>469.8268212684672</v>
+        <v>362.7181281406019</v>
       </c>
       <c r="L6" t="n">
-        <v>947.6431492186766</v>
+        <v>840.534456090813</v>
       </c>
       <c r="M6" t="n">
-        <v>1096.163475324174</v>
+        <v>989.0547821963122</v>
       </c>
       <c r="N6" t="n">
-        <v>1737.572288041526</v>
+        <v>1630.463594913666</v>
       </c>
       <c r="O6" t="n">
-        <v>2035.843764075263</v>
+        <v>2035.84376407526</v>
       </c>
       <c r="P6" t="n">
-        <v>2436.465902086554</v>
+        <v>2436.465902086552</v>
       </c>
       <c r="Q6" t="n">
-        <v>2651.573422431425</v>
+        <v>2651.573422431424</v>
       </c>
       <c r="R6" t="n">
         <v>2622.716774735478</v>
@@ -4677,19 +4677,19 @@
         <v>2273.440936176837</v>
       </c>
       <c r="U6" t="n">
-        <v>2045.293942187475</v>
+        <v>2045.293942187474</v>
       </c>
       <c r="V6" t="n">
         <v>1810.141833955732</v>
       </c>
       <c r="W6" t="n">
-        <v>1555.904477227531</v>
+        <v>1555.90447722753</v>
       </c>
       <c r="X6" t="n">
-        <v>1348.052977021998</v>
+        <v>1348.052977021997</v>
       </c>
       <c r="Y6" t="n">
-        <v>1140.292678257044</v>
+        <v>1140.292678257043</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221.9676513765354</v>
+        <v>200.9445620310216</v>
       </c>
       <c r="C7" t="n">
-        <v>53.03146844862849</v>
+        <v>200.9445620310216</v>
       </c>
       <c r="D7" t="n">
-        <v>53.03146844862849</v>
+        <v>200.9445620310216</v>
       </c>
       <c r="E7" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="F7" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="G7" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="H7" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="I7" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="J7" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="K7" t="n">
-        <v>142.171255737618</v>
+        <v>142.1712557376187</v>
       </c>
       <c r="L7" t="n">
-        <v>311.7659283158645</v>
+        <v>311.765928315866</v>
       </c>
       <c r="M7" t="n">
-        <v>500.9688547163971</v>
+        <v>500.9688547163995</v>
       </c>
       <c r="N7" t="n">
-        <v>691.107574838312</v>
+        <v>691.1075748383154</v>
       </c>
       <c r="O7" t="n">
-        <v>850.7151622000459</v>
+        <v>850.7151622000503</v>
       </c>
       <c r="P7" t="n">
-        <v>963.7663440218794</v>
+        <v>963.7663440218844</v>
       </c>
       <c r="Q7" t="n">
-        <v>958.4971860095083</v>
+        <v>963.7663440218844</v>
       </c>
       <c r="R7" t="n">
-        <v>823.3170703346702</v>
+        <v>963.7663440218844</v>
       </c>
       <c r="S7" t="n">
-        <v>693.0332862437358</v>
+        <v>831.3751569028087</v>
       </c>
       <c r="T7" t="n">
-        <v>693.0332862437358</v>
+        <v>831.3751569028087</v>
       </c>
       <c r="U7" t="n">
-        <v>693.0332862437358</v>
+        <v>831.3751569028087</v>
       </c>
       <c r="V7" t="n">
-        <v>693.0332862437358</v>
+        <v>831.3751569028087</v>
       </c>
       <c r="W7" t="n">
-        <v>403.6161162067751</v>
+        <v>831.3751569028087</v>
       </c>
       <c r="X7" t="n">
-        <v>403.6161162067751</v>
+        <v>603.3856060047914</v>
       </c>
       <c r="Y7" t="n">
-        <v>403.6161162067751</v>
+        <v>382.5930268612613</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>777.5849376248366</v>
+        <v>1359.063824208448</v>
       </c>
       <c r="C8" t="n">
-        <v>777.5849376248366</v>
+        <v>1359.063824208448</v>
       </c>
       <c r="D8" t="n">
-        <v>777.5849376248366</v>
+        <v>1000.798125601698</v>
       </c>
       <c r="E8" t="n">
-        <v>391.7966850265923</v>
+        <v>1000.798125601698</v>
       </c>
       <c r="F8" t="n">
-        <v>185.7718167716862</v>
+        <v>589.8122208120902</v>
       </c>
       <c r="G8" t="n">
         <v>172.7244390485177</v>
@@ -4799,55 +4799,55 @@
         <v>172.7244390485177</v>
       </c>
       <c r="I8" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="J8" t="n">
-        <v>74.26571844201179</v>
+        <v>74.26571844201177</v>
       </c>
       <c r="K8" t="n">
-        <v>477.7328314620573</v>
+        <v>156.8288730166041</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.546089708256</v>
+        <v>709.6421312628033</v>
       </c>
       <c r="M8" t="n">
-        <v>1662.263900691568</v>
+        <v>1179.605721940422</v>
       </c>
       <c r="N8" t="n">
-        <v>1958.693772393226</v>
+        <v>1806.913390000269</v>
       </c>
       <c r="O8" t="n">
-        <v>2505.854977160303</v>
+        <v>1977.082415317228</v>
       </c>
       <c r="P8" t="n">
-        <v>2616.58930240983</v>
+        <v>2406.397461656523</v>
       </c>
       <c r="Q8" t="n">
-        <v>2651.573422431425</v>
+        <v>2651.573422431424</v>
       </c>
       <c r="R8" t="n">
-        <v>2651.573422431425</v>
+        <v>2651.573422431424</v>
       </c>
       <c r="S8" t="n">
-        <v>2495.358384928253</v>
+        <v>2495.358384928252</v>
       </c>
       <c r="T8" t="n">
-        <v>2280.558523195964</v>
+        <v>2376.360617700189</v>
       </c>
       <c r="U8" t="n">
-        <v>2280.558523195964</v>
+        <v>2122.66891444534</v>
       </c>
       <c r="V8" t="n">
-        <v>2280.558523195964</v>
+        <v>2122.66891444534</v>
       </c>
       <c r="W8" t="n">
-        <v>1927.78986792585</v>
+        <v>2122.66891444534</v>
       </c>
       <c r="X8" t="n">
-        <v>1554.32410966477</v>
+        <v>1749.20315618426</v>
       </c>
       <c r="Y8" t="n">
-        <v>1164.184777688958</v>
+        <v>1359.063824208448</v>
       </c>
     </row>
     <row r="9">
@@ -4869,34 +4869,34 @@
         <v>483.8282589274005</v>
       </c>
       <c r="F9" t="n">
-        <v>337.2937009542855</v>
+        <v>337.2937009542854</v>
       </c>
       <c r="G9" t="n">
         <v>199.8523033135074</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93632545831201</v>
+        <v>98.93632545831198</v>
       </c>
       <c r="I9" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="J9" t="n">
-        <v>53.03146844862849</v>
+        <v>171.6907203055241</v>
       </c>
       <c r="K9" t="n">
-        <v>382.4598727544384</v>
+        <v>501.119124611334</v>
       </c>
       <c r="L9" t="n">
-        <v>886.8214126205569</v>
+        <v>1005.480664477453</v>
       </c>
       <c r="M9" t="n">
-        <v>1066.318748975162</v>
+        <v>1232.602550942966</v>
       </c>
       <c r="N9" t="n">
-        <v>1722.583171026939</v>
+        <v>1431.259292595631</v>
       </c>
       <c r="O9" t="n">
-        <v>2272.019179779662</v>
+        <v>1980.695301348353</v>
       </c>
       <c r="P9" t="n">
         <v>2404.66306982919</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.4177308336648</v>
+        <v>200.9445620310216</v>
       </c>
       <c r="C10" t="n">
-        <v>195.4177308336648</v>
+        <v>200.9445620310216</v>
       </c>
       <c r="D10" t="n">
-        <v>195.4177308336648</v>
+        <v>200.9445620310216</v>
       </c>
       <c r="E10" t="n">
-        <v>195.4177308336648</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="F10" t="n">
-        <v>195.4177308336648</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="G10" t="n">
-        <v>195.4177308336648</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="H10" t="n">
-        <v>195.4177308336648</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="I10" t="n">
-        <v>70.9060562079911</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="J10" t="n">
-        <v>53.03146844862849</v>
+        <v>53.03146844862847</v>
       </c>
       <c r="K10" t="n">
         <v>154.0793980442383</v>
@@ -4987,25 +4987,25 @@
         <v>922.4881886273758</v>
       </c>
       <c r="S10" t="n">
-        <v>715.0479038797812</v>
+        <v>922.4881886273758</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8587748074347</v>
+        <v>696.8589919397408</v>
       </c>
       <c r="U10" t="n">
-        <v>597.8587748074347</v>
+        <v>696.8589919397408</v>
       </c>
       <c r="V10" t="n">
-        <v>597.8587748074347</v>
+        <v>696.8589919397408</v>
       </c>
       <c r="W10" t="n">
-        <v>597.8587748074347</v>
+        <v>407.4418219027802</v>
       </c>
       <c r="X10" t="n">
-        <v>597.8587748074347</v>
+        <v>382.5930268612613</v>
       </c>
       <c r="Y10" t="n">
-        <v>377.0661956639045</v>
+        <v>382.5930268612613</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,13 +5051,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400699</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C13" t="n">
-        <v>344.917417812163</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>344.917417812163</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>344.917417812163</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>198.0274703142526</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>198.0274703142526</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782948</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038335</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2356.04164637206</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2356.04164637206</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2152.636624305706</v>
       </c>
       <c r="U16" t="n">
-        <v>1870.758369404391</v>
+        <v>1863.561397649904</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.073881198505</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W16" t="n">
-        <v>1326.656711161544</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263527</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.556199993915</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.566649095898</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.774069952368</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942654</v>
@@ -6646,22 +6646,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,16 +6838,16 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,34 +7093,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380732</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7339,40 +7339,40 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7394,43 +7394,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192683</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111743</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075864</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332396</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014792</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355954</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068031</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,58 +7464,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H42" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756277</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468503</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962612</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>1670.092171589167</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2297.690135143776</v>
       </c>
       <c r="O42" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="P42" t="n">
-        <v>2527.96527192868</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T42" t="n">
         <v>2244.643795685161</v>
@@ -7533,7 +7533,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319353</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656841</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150041</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380739</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311343</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979289</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656418</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382523</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973202</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717221</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.78173493128</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.45684754784</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532437</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838291</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.68550859406</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518755</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582394</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400519</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7813,13 +7813,13 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>93.82832980901497</v>
       </c>
       <c r="M2" t="n">
-        <v>438.3789023533041</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>17.90043622135124</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8067,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>107.7802812852964</v>
+        <v>211.1710308092162</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,16 +8219,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>93.82832980901497</v>
       </c>
       <c r="M5" t="n">
-        <v>56.96729652132555</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>17.90043622135124</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>169.5425213285355</v>
+        <v>277.7331204475814</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,25 +8453,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>286.1254321739509</v>
       </c>
       <c r="N8" t="n">
-        <v>103.1269280905807</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>462.2299802011241</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>24.19622476992816</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-7.898889968787939e-13</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-2.632100105653528e-11</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400.2417368169446</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>127.3941404185078</v>
+        <v>127.3941404185073</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9123500142623</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1732506010561</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>137.7618256867463</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,22 +22711,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>40.56686412182492</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>126.3800191549501</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.01548769187207</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.216466432247387</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.8152646964239</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2663018067225</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>63.36835372228798</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>37.12601365260593</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>173.4237883572452</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5487903941885</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>144.165476520764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.4161395899846</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-5.988543122513853e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-5.846434575361833e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1137986.39629017</v>
+        <v>1137986.396290169</v>
       </c>
     </row>
     <row r="3">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1339682.371714572</v>
+        <v>1339682.371714571</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82889.17417537625</v>
+        <v>82889.17417537626</v>
       </c>
       <c r="C2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="D2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
         <v>100893.3249612508</v>
@@ -26347,10 +26347,10 @@
         <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>738708.4928969198</v>
+        <v>738708.492896923</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49169.02095353366</v>
+        <v>49169.02095353084</v>
       </c>
       <c r="E3" t="n">
-        <v>774454.6643746337</v>
+        <v>774454.6643746338</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363217</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103082.0081941916</v>
+        <v>103082.0081941911</v>
       </c>
       <c r="C4" t="n">
-        <v>193222.3257762236</v>
+        <v>193222.3257762231</v>
       </c>
       <c r="D4" t="n">
         <v>183521.5571871843</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695027</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695056</v>
-      </c>
       <c r="G4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="L4" t="n">
+        <v>14278.33979478856</v>
+      </c>
+      <c r="M4" t="n">
         <v>14278.33979478855</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>14278.33979478852</v>
       </c>
-      <c r="N4" t="n">
-        <v>14278.33979478855</v>
-      </c>
       <c r="O4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478783</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478852</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85617.69863462615</v>
+        <v>85617.69863462621</v>
       </c>
       <c r="C5" t="n">
-        <v>85617.69863462615</v>
+        <v>85617.69863462621</v>
       </c>
       <c r="D5" t="n">
         <v>86869.29500832746</v>
@@ -26506,7 +26506,7 @@
         <v>103164.1158539154</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="P5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-844519.0255503613</v>
+        <v>-844913.8464915171</v>
       </c>
       <c r="C6" t="n">
-        <v>-176209.8031778144</v>
+        <v>-176209.8031778138</v>
       </c>
       <c r="D6" t="n">
-        <v>-216929.65191601</v>
+        <v>-216929.6519160072</v>
       </c>
       <c r="E6" t="n">
-        <v>-780971.3497689851</v>
+        <v>-781006.0876944208</v>
       </c>
       <c r="F6" t="n">
-        <v>-6516.685394351371</v>
+        <v>-6551.423319787093</v>
       </c>
       <c r="G6" t="n">
-        <v>-6516.685394351371</v>
+        <v>-6551.423319787078</v>
       </c>
       <c r="H6" t="n">
-        <v>-6516.6853943514</v>
+        <v>-6551.423319787078</v>
       </c>
       <c r="I6" t="n">
-        <v>-6516.685394351385</v>
+        <v>-6551.423319787078</v>
       </c>
       <c r="J6" t="n">
-        <v>-179958.7545290133</v>
+        <v>-179993.492454449</v>
       </c>
       <c r="K6" t="n">
         <v>-34239.95240930015</v>
       </c>
       <c r="L6" t="n">
-        <v>-14812.23441566854</v>
+        <v>-14812.23441566859</v>
       </c>
       <c r="M6" t="n">
-        <v>-141860.154852353</v>
+        <v>-141860.1548523531</v>
       </c>
       <c r="N6" t="n">
-        <v>-14812.23441566851</v>
+        <v>-14812.23441566843</v>
       </c>
       <c r="O6" t="n">
-        <v>-14812.23441566844</v>
+        <v>-14812.23441566748</v>
       </c>
       <c r="P6" t="n">
-        <v>-34239.95240930024</v>
+        <v>-34239.95240930063</v>
       </c>
     </row>
   </sheetData>
@@ -26719,10 +26719,10 @@
         <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>536.0634226453444</v>
+        <v>536.0634226453477</v>
       </c>
       <c r="C3" t="n">
-        <v>536.0634226453444</v>
+        <v>536.0634226453477</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26774,7 +26774,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341679</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>662.8933556078562</v>
+        <v>662.8933556078559</v>
       </c>
       <c r="C4" t="n">
-        <v>662.8933556078562</v>
+        <v>662.8933556078559</v>
       </c>
       <c r="D4" t="n">
-        <v>662.8933556078562</v>
+        <v>662.8933556078559</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-4.689582056016661e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749204022</v>
       </c>
     </row>
     <row r="3">
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>536.0634226453444</v>
+        <v>536.0634226453477</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.41267769272065</v>
+        <v>57.41267769271735</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036089</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>662.8933556078562</v>
+        <v>662.8933556078559</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>509.8149324917922</v>
+        <v>509.8149324917924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>662.8933556078562</v>
+        <v>662.8933556078559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>509.8149324917922</v>
+        <v>509.8149324917923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>662.8933556078562</v>
+        <v>662.8933556078559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>509.8149324917922</v>
+        <v>509.8149324917924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>90.65901663451513</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14.49828789996127</v>
+        <v>14.49828789996042</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>159.912350014262</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>85.45883918607208</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0243076127049</v>
       </c>
       <c r="H4" t="n">
-        <v>153.6325818951913</v>
+        <v>153.6325818951912</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>126.3800191549499</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.01548769187166</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.216466432246889</v>
       </c>
       <c r="R4" t="n">
-        <v>133.8283145180896</v>
+        <v>133.8283145180893</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>207.1701458859701</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.8152646964239</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2663018067225</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>132.7273891416732</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>215.2872427036536</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>127.3941404185078</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>159.9123500142623</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>164.8388334522272</v>
+        <v>213.6622108399906</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1732506010561</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.0243076127049</v>
       </c>
       <c r="H7" t="n">
-        <v>153.6325818951913</v>
+        <v>153.6325818951912</v>
       </c>
       <c r="I7" t="n">
-        <v>126.3800191549501</v>
+        <v>126.3800191549499</v>
       </c>
       <c r="J7" t="n">
-        <v>25.01548769187207</v>
+        <v>25.01548769187166</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>5.216466432246889</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.8283145180893</v>
       </c>
       <c r="S7" t="n">
-        <v>78.18919963594513</v>
+        <v>76.10287063808522</v>
       </c>
       <c r="T7" t="n">
         <v>223.8152646964239</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>202.9114261693544</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>94.84407355918373</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>107.3556669391356</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>201.1093482979334</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203924</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.155028834755152</v>
+        <v>2.155028834755165</v>
       </c>
       <c r="H2" t="n">
-        <v>22.0701890539362</v>
+        <v>22.07018905393634</v>
       </c>
       <c r="I2" t="n">
-        <v>83.08174915189807</v>
+        <v>83.08174915189858</v>
       </c>
       <c r="J2" t="n">
-        <v>182.9053785638002</v>
+        <v>182.9053785638013</v>
       </c>
       <c r="K2" t="n">
-        <v>274.1277491389858</v>
+        <v>274.1277491389876</v>
       </c>
       <c r="L2" t="n">
-        <v>340.0797128406239</v>
+        <v>340.079712840626</v>
       </c>
       <c r="M2" t="n">
-        <v>378.4042068807008</v>
+        <v>378.4042068807032</v>
       </c>
       <c r="N2" t="n">
-        <v>384.527182557449</v>
+        <v>384.5271825574513</v>
       </c>
       <c r="O2" t="n">
-        <v>363.0981145818524</v>
+        <v>363.0981145818546</v>
       </c>
       <c r="P2" t="n">
-        <v>309.8958402238345</v>
+        <v>309.8958402238364</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.7188700791656</v>
+        <v>232.718870079167</v>
       </c>
       <c r="R2" t="n">
-        <v>135.3708300411884</v>
+        <v>135.3708300411893</v>
       </c>
       <c r="S2" t="n">
-        <v>49.10771957198307</v>
+        <v>49.10771957198337</v>
       </c>
       <c r="T2" t="n">
-        <v>9.433638724140682</v>
+        <v>9.43363872414074</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1724023067804121</v>
+        <v>0.1724023067804132</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.153042078897533</v>
+        <v>1.15304207889754</v>
       </c>
       <c r="H3" t="n">
-        <v>11.13595902514197</v>
+        <v>11.13595902514204</v>
       </c>
       <c r="I3" t="n">
-        <v>39.69903648835806</v>
+        <v>39.6990364883583</v>
       </c>
       <c r="J3" t="n">
-        <v>108.9371904453148</v>
+        <v>108.9371904453155</v>
       </c>
       <c r="K3" t="n">
-        <v>186.1910097314495</v>
+        <v>186.1910097314506</v>
       </c>
       <c r="L3" t="n">
-        <v>250.3567899816772</v>
+        <v>250.3567899816787</v>
       </c>
       <c r="M3" t="n">
-        <v>292.1545653417127</v>
+        <v>292.1545653417145</v>
       </c>
       <c r="N3" t="n">
-        <v>299.8870273532668</v>
+        <v>299.8870273532686</v>
       </c>
       <c r="O3" t="n">
-        <v>274.3380423419056</v>
+        <v>274.3380423419073</v>
       </c>
       <c r="P3" t="n">
-        <v>220.1804650484246</v>
+        <v>220.180465048426</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.1848099308501</v>
+        <v>147.1848099308509</v>
       </c>
       <c r="R3" t="n">
-        <v>71.58975293365565</v>
+        <v>71.58975293365609</v>
       </c>
       <c r="S3" t="n">
-        <v>21.41725089531162</v>
+        <v>21.41725089531176</v>
       </c>
       <c r="T3" t="n">
-        <v>4.647568730293126</v>
+        <v>4.647568730293155</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07585803150641669</v>
+        <v>0.07585803150641716</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9666717457538997</v>
+        <v>0.9666717457539056</v>
       </c>
       <c r="H4" t="n">
-        <v>8.594590612248314</v>
+        <v>8.594590612248368</v>
       </c>
       <c r="I4" t="n">
-        <v>29.07045577230819</v>
+        <v>29.07045577230837</v>
       </c>
       <c r="J4" t="n">
-        <v>68.34369242480071</v>
+        <v>68.34369242480112</v>
       </c>
       <c r="K4" t="n">
-        <v>112.3096810066803</v>
+        <v>112.309681006681</v>
       </c>
       <c r="L4" t="n">
-        <v>143.7177248187207</v>
+        <v>143.7177248187216</v>
       </c>
       <c r="M4" t="n">
-        <v>151.5301901094045</v>
+        <v>151.5301901094054</v>
       </c>
       <c r="N4" t="n">
-        <v>147.9271408752309</v>
+        <v>147.9271408752319</v>
       </c>
       <c r="O4" t="n">
-        <v>136.6346572998331</v>
+        <v>136.6346572998339</v>
       </c>
       <c r="P4" t="n">
-        <v>116.9145536864534</v>
+        <v>116.9145536864541</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.945576819447</v>
+        <v>80.9455768194475</v>
       </c>
       <c r="R4" t="n">
-        <v>43.46507685907988</v>
+        <v>43.46507685908014</v>
       </c>
       <c r="S4" t="n">
-        <v>16.84645215100204</v>
+        <v>16.84645215100215</v>
       </c>
       <c r="T4" t="n">
-        <v>4.13032473185757</v>
+        <v>4.130324731857596</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05272754976839459</v>
+        <v>0.05272754976839492</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.155028834755152</v>
+        <v>2.155028834755165</v>
       </c>
       <c r="H5" t="n">
-        <v>22.0701890539362</v>
+        <v>22.07018905393634</v>
       </c>
       <c r="I5" t="n">
-        <v>83.08174915189807</v>
+        <v>83.08174915189858</v>
       </c>
       <c r="J5" t="n">
-        <v>182.9053785638002</v>
+        <v>182.9053785638013</v>
       </c>
       <c r="K5" t="n">
-        <v>274.1277491389858</v>
+        <v>274.1277491389876</v>
       </c>
       <c r="L5" t="n">
-        <v>340.0797128406239</v>
+        <v>340.079712840626</v>
       </c>
       <c r="M5" t="n">
-        <v>378.4042068807008</v>
+        <v>378.4042068807032</v>
       </c>
       <c r="N5" t="n">
-        <v>384.527182557449</v>
+        <v>384.5271825574513</v>
       </c>
       <c r="O5" t="n">
-        <v>363.0981145818524</v>
+        <v>363.0981145818546</v>
       </c>
       <c r="P5" t="n">
-        <v>309.8958402238345</v>
+        <v>309.8958402238364</v>
       </c>
       <c r="Q5" t="n">
-        <v>232.7188700791656</v>
+        <v>232.718870079167</v>
       </c>
       <c r="R5" t="n">
-        <v>135.3708300411884</v>
+        <v>135.3708300411893</v>
       </c>
       <c r="S5" t="n">
-        <v>49.10771957198307</v>
+        <v>49.10771957198337</v>
       </c>
       <c r="T5" t="n">
-        <v>9.433638724140682</v>
+        <v>9.43363872414074</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1724023067804121</v>
+        <v>0.1724023067804132</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.153042078897533</v>
+        <v>1.15304207889754</v>
       </c>
       <c r="H6" t="n">
-        <v>11.13595902514197</v>
+        <v>11.13595902514204</v>
       </c>
       <c r="I6" t="n">
-        <v>39.69903648835806</v>
+        <v>39.6990364883583</v>
       </c>
       <c r="J6" t="n">
-        <v>108.9371904453148</v>
+        <v>108.9371904453155</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1910097314495</v>
+        <v>186.1910097314506</v>
       </c>
       <c r="L6" t="n">
-        <v>250.3567899816772</v>
+        <v>250.3567899816787</v>
       </c>
       <c r="M6" t="n">
-        <v>292.1545653417127</v>
+        <v>292.1545653417145</v>
       </c>
       <c r="N6" t="n">
-        <v>299.8870273532668</v>
+        <v>299.8870273532686</v>
       </c>
       <c r="O6" t="n">
-        <v>274.3380423419056</v>
+        <v>274.3380423419073</v>
       </c>
       <c r="P6" t="n">
-        <v>220.1804650484246</v>
+        <v>220.180465048426</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.1848099308501</v>
+        <v>147.1848099308509</v>
       </c>
       <c r="R6" t="n">
-        <v>71.58975293365565</v>
+        <v>71.58975293365609</v>
       </c>
       <c r="S6" t="n">
-        <v>21.41725089531162</v>
+        <v>21.41725089531176</v>
       </c>
       <c r="T6" t="n">
-        <v>4.647568730293126</v>
+        <v>4.647568730293155</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07585803150641669</v>
+        <v>0.07585803150641716</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9666717457538997</v>
+        <v>0.9666717457539056</v>
       </c>
       <c r="H7" t="n">
-        <v>8.594590612248314</v>
+        <v>8.594590612248368</v>
       </c>
       <c r="I7" t="n">
-        <v>29.07045577230819</v>
+        <v>29.07045577230837</v>
       </c>
       <c r="J7" t="n">
-        <v>68.34369242480071</v>
+        <v>68.34369242480112</v>
       </c>
       <c r="K7" t="n">
-        <v>112.3096810066803</v>
+        <v>112.309681006681</v>
       </c>
       <c r="L7" t="n">
-        <v>143.7177248187207</v>
+        <v>143.7177248187216</v>
       </c>
       <c r="M7" t="n">
-        <v>151.5301901094045</v>
+        <v>151.5301901094054</v>
       </c>
       <c r="N7" t="n">
-        <v>147.9271408752309</v>
+        <v>147.9271408752319</v>
       </c>
       <c r="O7" t="n">
-        <v>136.6346572998331</v>
+        <v>136.6346572998339</v>
       </c>
       <c r="P7" t="n">
-        <v>116.9145536864534</v>
+        <v>116.9145536864541</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.945576819447</v>
+        <v>80.9455768194475</v>
       </c>
       <c r="R7" t="n">
-        <v>43.46507685907988</v>
+        <v>43.46507685908014</v>
       </c>
       <c r="S7" t="n">
-        <v>16.84645215100204</v>
+        <v>16.84645215100215</v>
       </c>
       <c r="T7" t="n">
-        <v>4.13032473185757</v>
+        <v>4.130324731857596</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05272754976839459</v>
+        <v>0.05272754976839492</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>626.4629682828346</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>301.9817606876396</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>602.8420149078241</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709964</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
-        <v>602.4605829984181</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348456</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135364</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663302</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817605</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162597</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175716</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159466</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460066</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923654</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669248</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204374</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292906</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651538</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078764</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659462</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521112</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420766</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422605</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473099</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862152</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071816</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565634</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.3312853305619</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742461</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937739</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275962</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189914</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121579</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869306</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796269</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235519</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588168</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392061</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106804</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920072</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417327</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515936</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670483</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532784</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099326</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467227</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.859474037113955</v>
+        <v>170.9560892091888</v>
       </c>
       <c r="K2" t="n">
-        <v>378.18331066517</v>
+        <v>378.1833106651717</v>
       </c>
       <c r="L2" t="n">
-        <v>521.9745124210872</v>
+        <v>198.1416276796537</v>
       </c>
       <c r="M2" t="n">
-        <v>586.4368760067322</v>
+        <v>148.0579736534304</v>
       </c>
       <c r="N2" t="n">
-        <v>592.4610433728421</v>
+        <v>592.4610433728445</v>
       </c>
       <c r="O2" t="n">
-        <v>132.9999031601656</v>
+        <v>513.8000844229132</v>
       </c>
       <c r="P2" t="n">
-        <v>400.4615526400476</v>
+        <v>400.4615526400495</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.41318020471607</v>
+        <v>222.7281708646222</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>108.1905991190569</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>312.8148077696691</v>
+        <v>48.34957075709164</v>
       </c>
       <c r="L3" t="n">
-        <v>482.6427555052621</v>
+        <v>482.6427555052637</v>
       </c>
       <c r="M3" t="n">
-        <v>615.7255951696943</v>
+        <v>615.7255951696961</v>
       </c>
       <c r="N3" t="n">
-        <v>168.5453152699335</v>
+        <v>647.8876896134889</v>
       </c>
       <c r="O3" t="n">
-        <v>525.6041171741907</v>
+        <v>525.6041171741924</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9863389193908</v>
+        <v>297.3770884433119</v>
       </c>
       <c r="Q3" t="n">
-        <v>217.2803235806776</v>
+        <v>7.203035844829429</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>90.04018918079747</v>
+        <v>90.04018918079815</v>
       </c>
       <c r="L4" t="n">
-        <v>171.3077500790369</v>
+        <v>171.3077500790377</v>
       </c>
       <c r="M4" t="n">
-        <v>191.114067071245</v>
+        <v>191.114067071246</v>
       </c>
       <c r="N4" t="n">
-        <v>192.0593132544595</v>
+        <v>192.0593132544604</v>
       </c>
       <c r="O4" t="n">
-        <v>161.2197852138727</v>
+        <v>161.2197852138736</v>
       </c>
       <c r="P4" t="n">
-        <v>114.1931129513469</v>
+        <v>114.1931129513476</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>170.9560892091877</v>
+        <v>170.9560892091888</v>
       </c>
       <c r="K5" t="n">
-        <v>378.18331066517</v>
+        <v>378.1833106651717</v>
       </c>
       <c r="L5" t="n">
-        <v>521.9745124210872</v>
+        <v>198.1416276796537</v>
       </c>
       <c r="M5" t="n">
-        <v>205.0252701747536</v>
+        <v>148.0579736534304</v>
       </c>
       <c r="N5" t="n">
-        <v>592.4610433728421</v>
+        <v>592.4610433728445</v>
       </c>
       <c r="O5" t="n">
-        <v>132.9999031601656</v>
+        <v>513.8000844229132</v>
       </c>
       <c r="P5" t="n">
-        <v>400.4615526400476</v>
+        <v>400.4615526400495</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.7281708646208</v>
+        <v>222.7281708646222</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>108.1905991190569</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>312.8148077696691</v>
+        <v>312.8148077696702</v>
       </c>
       <c r="L6" t="n">
-        <v>482.6427555052621</v>
+        <v>482.6427555052637</v>
       </c>
       <c r="M6" t="n">
-        <v>150.0205314196944</v>
+        <v>150.0205314196962</v>
       </c>
       <c r="N6" t="n">
-        <v>647.8876896134871</v>
+        <v>647.8876896134889</v>
       </c>
       <c r="O6" t="n">
-        <v>301.2843192259967</v>
+        <v>409.4749183450443</v>
       </c>
       <c r="P6" t="n">
-        <v>404.6688262740315</v>
+        <v>404.6688262740329</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2803235806776</v>
+        <v>217.2803235806785</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>90.04018918079747</v>
+        <v>90.04018918079815</v>
       </c>
       <c r="L7" t="n">
-        <v>171.3077500790369</v>
+        <v>171.3077500790377</v>
       </c>
       <c r="M7" t="n">
-        <v>191.114067071245</v>
+        <v>191.114067071246</v>
       </c>
       <c r="N7" t="n">
-        <v>192.0593132544595</v>
+        <v>192.0593132544604</v>
       </c>
       <c r="O7" t="n">
-        <v>161.2197852138727</v>
+        <v>161.2197852138736</v>
       </c>
       <c r="P7" t="n">
-        <v>114.1931129513469</v>
+        <v>114.1931129513476</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>474.7106976541607</v>
       </c>
       <c r="N8" t="n">
-        <v>299.4241128299568</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,16 +35258,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>662.8933556078562</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9837273227553</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35422,7 +35422,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>483.8667238383902</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295248</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>161.9999866016181</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35963,16 +35963,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>471.5003028244908</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876631</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
-        <v>471.1188709150848</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318137</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396439</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.45432403678</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462724</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902988</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193557</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243198</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683563</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924753</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902419</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754099</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679015</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674357</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.412613764197</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238483</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121189</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.34951124454038</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549933</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016754</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111723</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.557074493086</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819483</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980861</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986655</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,19 +38099,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>405.0449047962161</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
